--- a/CompleteExample/doc1/tract3.xlsx
+++ b/CompleteExample/doc1/tract3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\gitDir\WMAD\CompleteExample\doc1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE6A9F7-D814-40A3-AAF5-080ED703EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83F3974-4481-4117-BBC8-E460164EE843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -110,6 +110,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -332,7 +333,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -354,7 +355,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3"/>
@@ -365,7 +366,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -375,10 +376,6 @@
       <c r="E3" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{13FA74AA-A323-429E-B34B-D81482DD8B68}"/>
-    <hyperlink ref="B2" r:id="rId2" location=":~:text=These%20canonical%20tracts%20have,lobe%20(ILF%3B%20Davis%201921)." xr:uid="{2AD7D8A8-FA36-456B-A046-BCE1DCF02C14}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>